--- a/Operational_calculations.xlsx
+++ b/Operational_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/marin_pellan_cstb_fr/Documents/Thèse stratégie carbone/DATA/Energy_balance/2021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cstbgroup-my.sharepoint.com/personal/marin_pellan_cstb_fr/Documents/Thèse stratégie carbone/Articles/Journal_papers/Carbon_budgets_Building_Environment/French_WLC_budgets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="478" documentId="8_{100AB5AA-151F-44F1-944E-C0E68F20D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70021E64-9336-44D1-AF6E-584BADED16A2}"/>
+  <xr:revisionPtr revIDLastSave="490" documentId="8_{100AB5AA-151F-44F1-944E-C0E68F20D52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85A10410-B086-4124-AFE8-749FCFC06124}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{E639E2AE-46D4-473E-AC26-97CEE6D951F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E639E2AE-46D4-473E-AC26-97CEE6D951F4}"/>
   </bookViews>
   <sheets>
     <sheet name="life_cycle_mtco2e" sheetId="7" r:id="rId1"/>
@@ -509,9 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -519,6 +516,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,22 +836,22 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A37" sqref="A37"/>
       <selection pane="topRight" activeCell="A37" sqref="A37"/>
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
-      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -923,49 +923,49 @@
       <c r="F2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <f>twh_energy_balance!G2*life_cycle_emission_factors!G2</f>
         <v>2.6991048973011034</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>twh_energy_balance!H2*life_cycle_emission_factors!H2</f>
         <v>2.7380350672579334</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="13">
         <f>twh_energy_balance!I2*life_cycle_emission_factors!I2</f>
         <v>2.7698551357803174</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <f>twh_energy_balance!J2*life_cycle_emission_factors!J2</f>
         <v>2.2050920980826345</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>twh_energy_balance!K2*life_cycle_emission_factors!K2</f>
         <v>2.2324429030168025</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <f>twh_energy_balance!L2*life_cycle_emission_factors!L2</f>
         <v>2.2460484876779896</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <f>twh_energy_balance!M2*life_cycle_emission_factors!M2</f>
         <v>2.0614783412471307</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="13">
         <f>twh_energy_balance!N2*life_cycle_emission_factors!N2</f>
         <v>2.1030267263128408</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="13">
         <f>twh_energy_balance!O2*life_cycle_emission_factors!O2</f>
         <v>1.977458615356146</v>
       </c>
-      <c r="P2" s="14">
+      <c r="P2" s="13">
         <f>twh_energy_balance!P2*life_cycle_emission_factors!P2</f>
         <v>1.869438843538509</v>
       </c>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -984,49 +984,49 @@
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <f>twh_energy_balance!G3*life_cycle_emission_factors!G3</f>
         <v>0.17725697028000001</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f>twh_energy_balance!H3*life_cycle_emission_factors!H3</f>
         <v>0.19747833040000001</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <f>twh_energy_balance!I3*life_cycle_emission_factors!I3</f>
         <v>0.20755831889000001</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <f>twh_energy_balance!J3*life_cycle_emission_factors!J3</f>
         <v>0.15369461354000002</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>twh_energy_balance!K3*life_cycle_emission_factors!K3</f>
         <v>0.15907879182000004</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <f>twh_energy_balance!L3*life_cycle_emission_factors!L3</f>
         <v>0.1651644917</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="13">
         <f>twh_energy_balance!M3*life_cycle_emission_factors!M3</f>
         <v>0.15561529637511004</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <f>twh_energy_balance!N3*life_cycle_emission_factors!N3</f>
         <v>0.11525207607043</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="13">
         <f>twh_energy_balance!O3*life_cycle_emission_factors!O3</f>
         <v>0.10692256812185003</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="13">
         <f>twh_energy_balance!P3*life_cycle_emission_factors!P3</f>
         <v>9.076257961485E-2</v>
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -1045,49 +1045,49 @@
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <f>twh_energy_balance!G4*life_cycle_emission_factors!G4</f>
         <v>11.6203693655</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f>twh_energy_balance!H4*life_cycle_emission_factors!H4</f>
         <v>12.566922208500001</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f>twh_energy_balance!I4*life_cycle_emission_factors!I4</f>
         <v>12.761008177500001</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <f>twh_energy_balance!J4*life_cycle_emission_factors!J4</f>
         <v>10.873760995299998</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>twh_energy_balance!K4*life_cycle_emission_factors!K4</f>
         <v>9.5796744435000001</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="13">
         <f>twh_energy_balance!L4*life_cycle_emission_factors!L4</f>
         <v>9.3458650446</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="13">
         <f>twh_energy_balance!M4*life_cycle_emission_factors!M4</f>
         <v>8.9906573178000002</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="13">
         <f>twh_energy_balance!N4*life_cycle_emission_factors!N4</f>
         <v>9.1494678343999993</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="13">
         <f>twh_energy_balance!O4*life_cycle_emission_factors!O4</f>
         <v>9.6951300738999979</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="13">
         <f>twh_energy_balance!P4*life_cycle_emission_factors!P4</f>
         <v>9.6737620668000002</v>
       </c>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -1106,49 +1106,49 @@
       <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>SUM(G6:G10)</f>
         <v>2.0388087261111112</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" ref="H5:P5" si="0">SUM(H6:H10)</f>
         <v>2.3593394238888892</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f t="shared" si="0"/>
         <v>2.5887799985000002</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>2.1171685332222223</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="0"/>
         <v>2.2354080729444443</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <f t="shared" si="0"/>
         <v>2.3859833519444442</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <f t="shared" si="0"/>
         <v>2.2984413947777775</v>
       </c>
-      <c r="N5" s="14">
+      <c r="N5" s="13">
         <f t="shared" si="0"/>
         <v>2.2315745318888887</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="13">
         <f t="shared" si="0"/>
         <v>2.2545698674999999</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <f t="shared" si="0"/>
         <v>2.0874092616666666</v>
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -1167,49 +1167,49 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>twh_energy_balance!G6*life_cycle_emission_factors!G6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <f>twh_energy_balance!H6*life_cycle_emission_factors!H6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="14">
         <f>twh_energy_balance!I6*life_cycle_emission_factors!I6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="14">
         <f>twh_energy_balance!J6*life_cycle_emission_factors!J6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <f>twh_energy_balance!K6*life_cycle_emission_factors!K6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <f>twh_energy_balance!L6*life_cycle_emission_factors!L6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <f>twh_energy_balance!M6*life_cycle_emission_factors!M6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <f>twh_energy_balance!N6*life_cycle_emission_factors!N6</f>
         <v>0</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <f>twh_energy_balance!O6*life_cycle_emission_factors!O6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <f>twh_energy_balance!P6*life_cycle_emission_factors!P6</f>
         <v>0</v>
       </c>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -1228,49 +1228,49 @@
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f>twh_energy_balance!G7*life_cycle_emission_factors!G7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>twh_energy_balance!H7*life_cycle_emission_factors!H7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="14">
         <f>twh_energy_balance!I7*life_cycle_emission_factors!I7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <f>twh_energy_balance!J7*life_cycle_emission_factors!J7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <f>twh_energy_balance!K7*life_cycle_emission_factors!K7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <f>twh_energy_balance!L7*life_cycle_emission_factors!L7</f>
         <v>0</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <f>twh_energy_balance!M7*life_cycle_emission_factors!M7</f>
         <v>0</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f>twh_energy_balance!N7*life_cycle_emission_factors!N7</f>
         <v>0</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <f>twh_energy_balance!O7*life_cycle_emission_factors!O7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <f>twh_energy_balance!P7*life_cycle_emission_factors!P7</f>
         <v>0</v>
       </c>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -1289,49 +1289,49 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>twh_energy_balance!G8*life_cycle_emission_factors!G8</f>
         <v>1.96566884</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f>twh_energy_balance!H8*life_cycle_emission_factors!H8</f>
         <v>2.2794159600000001</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="14">
         <f>twh_energy_balance!I8*life_cycle_emission_factors!I8</f>
         <v>2.503395936</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <f>twh_energy_balance!J8*life_cycle_emission_factors!J8</f>
         <v>2.0269329360000001</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <f>twh_energy_balance!K8*life_cycle_emission_factors!K8</f>
         <v>2.1415356160000001</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <f>twh_energy_balance!L8*life_cycle_emission_factors!L8</f>
         <v>2.2889063199999997</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <f>twh_energy_balance!M8*life_cycle_emission_factors!M8</f>
         <v>2.1978093919999999</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <f>twh_energy_balance!N8*life_cycle_emission_factors!N8</f>
         <v>2.1258549679999996</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <f>twh_energy_balance!O8*life_cycle_emission_factors!O8</f>
         <v>2.1453182799999997</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <f>twh_energy_balance!P8*life_cycle_emission_factors!P8</f>
         <v>1.9738655200000002</v>
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1350,49 +1350,49 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f>twh_energy_balance!G9*life_cycle_emission_factors!G9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f>twh_energy_balance!H9*life_cycle_emission_factors!H9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <f>twh_energy_balance!I9*life_cycle_emission_factors!I9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <f>twh_energy_balance!J9*life_cycle_emission_factors!J9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <f>twh_energy_balance!K9*life_cycle_emission_factors!K9</f>
         <v>0</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <f>twh_energy_balance!L9*life_cycle_emission_factors!L9</f>
         <v>0</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <f>twh_energy_balance!M9*life_cycle_emission_factors!M9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f>twh_energy_balance!N9*life_cycle_emission_factors!N9</f>
         <v>0</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <f>twh_energy_balance!O9*life_cycle_emission_factors!O9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <f>twh_energy_balance!P9*life_cycle_emission_factors!P9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -1411,49 +1411,49 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f>twh_energy_balance!G10*life_cycle_emission_factors!G10</f>
         <v>7.3139886111111108E-2</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f>twh_energy_balance!H10*life_cycle_emission_factors!H10</f>
         <v>7.9923463888888893E-2</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f>twh_energy_balance!I10*life_cycle_emission_factors!I10</f>
         <v>8.538406250000001E-2</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <f>twh_energy_balance!J10*life_cycle_emission_factors!J10</f>
         <v>9.0235597222222227E-2</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <f>twh_energy_balance!K10*life_cycle_emission_factors!K10</f>
         <v>9.3872456944444446E-2</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <f>twh_energy_balance!L10*life_cycle_emission_factors!L10</f>
         <v>9.7077031944444447E-2</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <f>twh_energy_balance!M10*life_cycle_emission_factors!M10</f>
         <v>0.10063200277777777</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <f>twh_energy_balance!N10*life_cycle_emission_factors!N10</f>
         <v>0.1057195638888889</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <f>twh_energy_balance!O10*life_cycle_emission_factors!O10</f>
         <v>0.1092515875</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="14">
         <f>twh_energy_balance!P10*life_cycle_emission_factors!P10</f>
         <v>0.11354374166666667</v>
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1472,49 +1472,49 @@
       <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <f>twh_energy_balance!G11*life_cycle_emission_factors!G11</f>
         <v>33.518077993750005</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f>twh_energy_balance!H11*life_cycle_emission_factors!H11</f>
         <v>37.107130218000009</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <f>twh_energy_balance!I11*life_cycle_emission_factors!I11</f>
         <v>38.299964369999998</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <f>twh_energy_balance!J11*life_cycle_emission_factors!J11</f>
         <v>28.6200811175</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f>twh_energy_balance!K11*life_cycle_emission_factors!K11</f>
         <v>30.817972240749999</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <f>twh_energy_balance!L11*life_cycle_emission_factors!L11</f>
         <v>33.344343430250007</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <f>twh_energy_balance!M11*life_cycle_emission_factors!M11</f>
         <v>32.395185492750002</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <f>twh_energy_balance!N11*life_cycle_emission_factors!N11</f>
         <v>30.487781218750005</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="13">
         <f>twh_energy_balance!O11*life_cycle_emission_factors!O11</f>
         <v>29.998326315750003</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="13">
         <f>twh_energy_balance!P11*life_cycle_emission_factors!P11</f>
         <v>28.388577380750007</v>
       </c>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1533,49 +1533,49 @@
       <c r="F12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <f>SUM(G13:G15)</f>
         <v>23.017622099597006</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f t="shared" ref="H12:P12" si="1">SUM(H13:H15)</f>
         <v>24.351455255659005</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="1"/>
         <v>24.519515238221</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <f t="shared" si="1"/>
         <v>20.300094214005007</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
         <v>20.373071944144005</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>19.066710762380005</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <f t="shared" si="1"/>
         <v>18.954409089652877</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="13">
         <f t="shared" si="1"/>
         <v>17.055967884839088</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <f t="shared" si="1"/>
         <v>15.957060871863304</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="13">
         <f t="shared" si="1"/>
         <v>15.269287431358745</v>
       </c>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -1594,49 +1594,49 @@
       <c r="F13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>twh_energy_balance!G13*life_cycle_emission_factors!G13</f>
         <v>3.4616812974720004</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f>twh_energy_balance!H13*life_cycle_emission_factors!H13</f>
         <v>3.4304010447840003</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f>twh_energy_balance!I13*life_cycle_emission_factors!I13</f>
         <v>3.3991207920960007</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="14">
         <f>twh_energy_balance!J13*life_cycle_emission_factors!J13</f>
         <v>2.9194902508800009</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <f>twh_energy_balance!K13*life_cycle_emission_factors!K13</f>
         <v>2.9264414181440008</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <f>twh_energy_balance!L13*life_cycle_emission_factors!L13</f>
         <v>2.9194902508800009</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <f>twh_energy_balance!M13*life_cycle_emission_factors!M13</f>
         <v>2.9125390836160006</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <f>twh_energy_balance!N13*life_cycle_emission_factors!N13</f>
         <v>2.8248848644169602</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <f>twh_energy_balance!O13*life_cycle_emission_factors!O13</f>
         <v>2.5785980570861766</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="14">
         <f>twh_energy_balance!P13*life_cycle_emission_factors!P13</f>
         <v>2.4711364867683687</v>
       </c>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -1655,49 +1655,49 @@
       <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f>twh_energy_balance!G14*life_cycle_emission_factors!G14</f>
         <v>18.771816545625004</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f>twh_energy_balance!H14*life_cycle_emission_factors!H14</f>
         <v>20.156338970625004</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f>twh_energy_balance!I14*life_cycle_emission_factors!I14</f>
         <v>20.425551664375003</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="14">
         <f>twh_energy_balance!J14*life_cycle_emission_factors!J14</f>
         <v>16.856560524375006</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <f>twh_energy_balance!K14*life_cycle_emission_factors!K14</f>
         <v>16.85271462875</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <f>twh_energy_balance!L14*life_cycle_emission_factors!L14</f>
         <v>15.498959368750002</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <f>twh_energy_balance!M14*life_cycle_emission_factors!M14</f>
         <v>15.358672634036878</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f>twh_energy_balance!N14*life_cycle_emission_factors!N14</f>
         <v>13.594129570539376</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <f>twh_energy_balance!O14*life_cycle_emission_factors!O14</f>
         <v>12.714957830664376</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <f>twh_energy_balance!P14*life_cycle_emission_factors!P14</f>
         <v>12.189200823353127</v>
       </c>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -1716,49 +1716,49 @@
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f>twh_energy_balance!G15*life_cycle_emission_factors!G15</f>
         <v>0.78412425649999984</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f>twh_energy_balance!H15*life_cycle_emission_factors!H15</f>
         <v>0.7647152402499966</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f>twh_energy_balance!I15*life_cycle_emission_factors!I15</f>
         <v>0.69484278174999792</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="14">
         <f>twh_energy_balance!J15*life_cycle_emission_factors!J15</f>
         <v>0.52404343874999915</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <f>twh_energy_balance!K15*life_cycle_emission_factors!K15</f>
         <v>0.59391589725000249</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <f>twh_energy_balance!L15*life_cycle_emission_factors!L15</f>
         <v>0.64826114275000268</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <f>twh_energy_balance!M15*life_cycle_emission_factors!M15</f>
         <v>0.68319737199999975</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <f>twh_energy_balance!N15*life_cycle_emission_factors!N15</f>
         <v>0.63695344988275149</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <f>twh_energy_balance!O15*life_cycle_emission_factors!O15</f>
         <v>0.66350498411274939</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="14">
         <f>twh_energy_balance!P15*life_cycle_emission_factors!P15</f>
         <v>0.60895012123724845</v>
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -1777,49 +1777,49 @@
       <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <f>SUM(G2:G5)+SUM(G11:G12)</f>
         <v>73.071240052539224</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <f t="shared" ref="H16:P16" si="2">SUM(H2:H5)+SUM(H11:H12)</f>
         <v>79.320360503705842</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <f t="shared" si="2"/>
         <v>81.146681238891318</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <f t="shared" si="2"/>
         <v>64.269891571649865</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <f t="shared" si="2"/>
         <v>65.397648396175256</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <f t="shared" si="2"/>
         <v>66.554115568552447</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <f t="shared" si="2"/>
         <v>64.855786932602896</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="15">
         <f t="shared" si="2"/>
         <v>61.143070272261255</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="15">
         <f t="shared" si="2"/>
         <v>59.989468312491297</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15">
         <f t="shared" si="2"/>
         <v>57.379237563728779</v>
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1838,49 +1838,49 @@
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <f>twh_energy_balance!G17*life_cycle_emission_factors!G17</f>
         <v>1.5895040325180165</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <f>twh_energy_balance!H17*life_cycle_emission_factors!H17</f>
         <v>1.5215427533910921</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <f>twh_energy_balance!I17*life_cycle_emission_factors!I17</f>
         <v>1.5253415668859773</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <f>twh_energy_balance!J17*life_cycle_emission_factors!J17</f>
         <v>1.3875667246774928</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f>twh_energy_balance!K17*life_cycle_emission_factors!K17</f>
         <v>1.3376658578038458</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <f>twh_energy_balance!L17*life_cycle_emission_factors!L17</f>
         <v>1.3850341086472262</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <f>twh_energy_balance!M17*life_cycle_emission_factors!M17</f>
         <v>1.3326209015521386</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <f>twh_energy_balance!N17*life_cycle_emission_factors!N17</f>
         <v>1.3340615919341399</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <f>twh_energy_balance!O17*life_cycle_emission_factors!O17</f>
         <v>1.2286640346104398</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <f>twh_energy_balance!P17*life_cycle_emission_factors!P17</f>
         <v>1.2297618764065945</v>
       </c>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1899,49 +1899,49 @@
       <c r="F18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <f>twh_energy_balance!G18*life_cycle_emission_factors!G18</f>
         <v>0.20228375336000001</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <f>twh_energy_balance!H18*life_cycle_emission_factors!H18</f>
         <v>0.22593380030000007</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <f>twh_energy_balance!I18*life_cycle_emission_factors!I18</f>
         <v>0.24318684715000005</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <f>twh_energy_balance!J18*life_cycle_emission_factors!J18</f>
         <v>0.18130387301000001</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>twh_energy_balance!K18*life_cycle_emission_factors!K18</f>
         <v>0.18606106635999997</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="13">
         <f>twh_energy_balance!L18*life_cycle_emission_factors!L18</f>
         <v>0.19289213294000002</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <f>twh_energy_balance!M18*life_cycle_emission_factors!M18</f>
         <v>0.18019497781688004</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <f>twh_energy_balance!N18*life_cycle_emission_factors!N18</f>
         <v>0.15856538762155001</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <f>twh_energy_balance!O18*life_cycle_emission_factors!O18</f>
         <v>0.15243150636115999</v>
       </c>
-      <c r="P18" s="14">
+      <c r="P18" s="13">
         <f>twh_energy_balance!P18*life_cycle_emission_factors!P18</f>
         <v>0.13393108833871001</v>
       </c>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1960,49 +1960,49 @@
       <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <f>twh_energy_balance!G19*life_cycle_emission_factors!G19</f>
         <v>10.869769556999998</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <f>twh_energy_balance!H19*life_cycle_emission_factors!H19</f>
         <v>11.357665504499998</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <f>twh_energy_balance!I19*life_cycle_emission_factors!I19</f>
         <v>10.999915278</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <f>twh_energy_balance!J19*life_cycle_emission_factors!J19</f>
         <v>9.9990528799000007</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f>twh_energy_balance!K19*life_cycle_emission_factors!K19</f>
         <v>8.6609119527000011</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="13">
         <f>twh_energy_balance!L19*life_cycle_emission_factors!L19</f>
         <v>8.1651770570999993</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="13">
         <f>twh_energy_balance!M19*life_cycle_emission_factors!M19</f>
         <v>7.9233797016</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="13">
         <f>twh_energy_balance!N19*life_cycle_emission_factors!N19</f>
         <v>8.0631719106999995</v>
       </c>
-      <c r="O19" s="14">
+      <c r="O19" s="13">
         <f>twh_energy_balance!O19*life_cycle_emission_factors!O19</f>
         <v>8.3624014809000009</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="13">
         <f>twh_energy_balance!P19*life_cycle_emission_factors!P19</f>
         <v>7.6456161132</v>
       </c>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -2021,49 +2021,49 @@
       <c r="F20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f>SUM(G21:G27)</f>
         <v>0.41813873633333332</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <f t="shared" ref="H20:P20" si="3">SUM(H21:H27)</f>
         <v>0.4357528853888889</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f t="shared" si="3"/>
         <v>0.53187842088888893</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <f t="shared" si="3"/>
         <v>0.45193517388888882</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <f t="shared" si="3"/>
         <v>0.33954455927777777</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="13">
         <f t="shared" si="3"/>
         <v>0.37624167827777777</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <f t="shared" si="3"/>
         <v>0.41423414572222222</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="13">
         <f t="shared" si="3"/>
         <v>0.36462578027777776</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f t="shared" si="3"/>
         <v>0.35977873305555558</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="13">
         <f t="shared" si="3"/>
         <v>0.40223496466666669</v>
       </c>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
@@ -2082,49 +2082,49 @@
       <c r="F21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f>twh_energy_balance!G21*life_cycle_emission_factors!G21</f>
         <v>9.2934874999999993E-3</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <f>twh_energy_balance!H21*life_cycle_emission_factors!H21</f>
         <v>9.2934874999999993E-3</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="14">
         <f>twh_energy_balance!I21*life_cycle_emission_factors!I21</f>
         <v>9.2934874999999993E-3</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J21" s="14">
         <f>twh_energy_balance!J21*life_cycle_emission_factors!J21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <f>twh_energy_balance!K21*life_cycle_emission_factors!K21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <f>twh_energy_balance!L21*life_cycle_emission_factors!L21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <f>twh_energy_balance!M21*life_cycle_emission_factors!M21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <f>twh_energy_balance!N21*life_cycle_emission_factors!N21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <f>twh_energy_balance!O21*life_cycle_emission_factors!O21</f>
         <v>8.7518749999999992E-3</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <f>twh_energy_balance!P21*life_cycle_emission_factors!P21</f>
         <v>8.7518749999999992E-3</v>
       </c>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -2143,49 +2143,49 @@
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f>twh_energy_balance!G22*life_cycle_emission_factors!G22</f>
         <v>0.17367023999999998</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <f>twh_energy_balance!H22*life_cycle_emission_factors!H22</f>
         <v>0.16942277777777778</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="14">
         <f>twh_energy_balance!I22*life_cycle_emission_factors!I22</f>
         <v>0.1993350975</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="14">
         <f>twh_energy_balance!J22*life_cycle_emission_factors!J22</f>
         <v>0.16007003333333331</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <f>twh_energy_balance!K22*life_cycle_emission_factors!K22</f>
         <v>9.9850033333333324E-2</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <f>twh_energy_balance!L22*life_cycle_emission_factors!L22</f>
         <v>0.11184529500000001</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <f>twh_energy_balance!M22*life_cycle_emission_factors!M22</f>
         <v>0.12464479944444444</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <f>twh_energy_balance!N22*life_cycle_emission_factors!N22</f>
         <v>9.8496930277777769E-2</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <f>twh_energy_balance!O22*life_cycle_emission_factors!O22</f>
         <v>9.3037816666666662E-2</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="14">
         <f>twh_energy_balance!P22*life_cycle_emission_factors!P22</f>
         <v>0.11271095500000002</v>
       </c>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -2204,49 +2204,49 @@
       <c r="F23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f>twh_energy_balance!G23*life_cycle_emission_factors!G23</f>
         <v>3.8300127999999996E-2</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f>twh_energy_balance!H23*life_cycle_emission_factors!H23</f>
         <v>5.5816623999999995E-2</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="14">
         <f>twh_energy_balance!I23*life_cycle_emission_factors!I23</f>
         <v>8.4538712000000002E-2</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J23" s="14">
         <f>twh_energy_balance!J23*life_cycle_emission_factors!J23</f>
         <v>7.6381919999999992E-2</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <f>twh_energy_balance!K23*life_cycle_emission_factors!K23</f>
         <v>8.2534903999999992E-2</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <f>twh_energy_balance!L23*life_cycle_emission_factors!L23</f>
         <v>8.8714487999999994E-2</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="14">
         <f>twh_energy_balance!M23*life_cycle_emission_factors!M23</f>
         <v>8.7638976000000007E-2</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <f>twh_energy_balance!N23*life_cycle_emission_factors!N23</f>
         <v>8.5696399999999992E-2</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <f>twh_energy_balance!O23*life_cycle_emission_factors!O23</f>
         <v>8.760364000000001E-2</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <f>twh_energy_balance!P23*life_cycle_emission_factors!P23</f>
         <v>8.2292287999999991E-2</v>
       </c>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -2265,49 +2265,49 @@
       <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f>twh_energy_balance!G24*life_cycle_emission_factors!G24</f>
         <v>1.3830617777777778E-2</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <f>twh_energy_balance!H24*life_cycle_emission_factors!H24</f>
         <v>2.1395171111111107E-2</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="14">
         <f>twh_energy_balance!I24*life_cycle_emission_factors!I24</f>
         <v>2.5385812222222224E-2</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="14">
         <f>twh_energy_balance!J24*life_cycle_emission_factors!J24</f>
         <v>3.4025627777777775E-2</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <f>twh_energy_balance!K24*life_cycle_emission_factors!K24</f>
         <v>3.5331902222222218E-2</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <f>twh_energy_balance!L24*life_cycle_emission_factors!L24</f>
         <v>4.1904267777777775E-2</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="14">
         <f>twh_energy_balance!M24*life_cycle_emission_factors!M24</f>
         <v>5.6114238888888883E-2</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <f>twh_energy_balance!N24*life_cycle_emission_factors!N24</f>
         <v>6.0361179999999993E-2</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="14">
         <f>twh_energy_balance!O24*life_cycle_emission_factors!O24</f>
         <v>6.4689814444444438E-2</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="14">
         <f>twh_energy_balance!P24*life_cycle_emission_factors!P24</f>
         <v>7.0384648888888887E-2</v>
       </c>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -2326,49 +2326,49 @@
       <c r="F25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f>twh_energy_balance!G25*life_cycle_emission_factors!G25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f>twh_energy_balance!H25*life_cycle_emission_factors!H25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f>twh_energy_balance!I25*life_cycle_emission_factors!I25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <f>twh_energy_balance!J25*life_cycle_emission_factors!J25</f>
         <v>0</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <f>twh_energy_balance!K25*life_cycle_emission_factors!K25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <f>twh_energy_balance!L25*life_cycle_emission_factors!L25</f>
         <v>0</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <f>twh_energy_balance!M25*life_cycle_emission_factors!M25</f>
         <v>0</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="14">
         <f>twh_energy_balance!N25*life_cycle_emission_factors!N25</f>
         <v>0</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="14">
         <f>twh_energy_balance!O25*life_cycle_emission_factors!O25</f>
         <v>0</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="14">
         <f>twh_energy_balance!P25*life_cycle_emission_factors!P25</f>
         <v>0</v>
       </c>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -2387,49 +2387,49 @@
       <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f>twh_energy_balance!G26*life_cycle_emission_factors!G26</f>
         <v>3.4632430555555553E-3</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f>twh_energy_balance!H26*life_cycle_emission_factors!H26</f>
         <v>5.5802694444444453E-3</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="14">
         <f>twh_energy_balance!I26*life_cycle_emission_factors!I26</f>
         <v>6.4097916666666678E-3</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="14">
         <f>twh_energy_balance!J26*life_cycle_emission_factors!J26</f>
         <v>6.939044444444444E-3</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="14">
         <f>twh_energy_balance!K26*life_cycle_emission_factors!K26</f>
         <v>7.4015791666666676E-3</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <f>twh_energy_balance!L26*life_cycle_emission_factors!L26</f>
         <v>7.7449625000000008E-3</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="14">
         <f>twh_energy_balance!M26*life_cycle_emission_factors!M26</f>
         <v>8.0680263888888906E-3</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="14">
         <f>twh_energy_balance!N26*life_cycle_emission_factors!N26</f>
         <v>8.4190180555555553E-3</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="14">
         <f>twh_energy_balance!O26*life_cycle_emission_factors!O26</f>
         <v>8.6803902777777796E-3</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="14">
         <f>twh_energy_balance!P26*life_cycle_emission_factors!P26</f>
         <v>8.9594694444444442E-3</v>
       </c>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -2448,49 +2448,49 @@
       <c r="F27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <f>twh_energy_balance!G27*life_cycle_emission_factors!G27</f>
         <v>0.17958102000000001</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <f>twh_energy_balance!H27*life_cycle_emission_factors!H27</f>
         <v>0.17424455555555557</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="14">
         <f>twh_energy_balance!I27*life_cycle_emission_factors!I27</f>
         <v>0.20691552000000002</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J27" s="14">
         <f>twh_energy_balance!J27*life_cycle_emission_factors!J27</f>
         <v>0.16576667333333331</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="14">
         <f>twh_energy_balance!K27*life_cycle_emission_factors!K27</f>
         <v>0.10567426555555556</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <f>twh_energy_balance!L27*life_cycle_emission_factors!L27</f>
         <v>0.11728079</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="14">
         <f>twh_energy_balance!M27*life_cycle_emission_factors!M27</f>
         <v>0.12901623000000001</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N27" s="14">
         <f>twh_energy_balance!N27*life_cycle_emission_factors!N27</f>
         <v>0.10290037694444444</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="14">
         <f>twh_energy_balance!O27*life_cycle_emission_factors!O27</f>
         <v>9.7015196666666678E-2</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="14">
         <f>twh_energy_balance!P27*life_cycle_emission_factors!P27</f>
         <v>0.11913572833333334</v>
       </c>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2509,49 +2509,49 @@
       <c r="F28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <f>twh_energy_balance!G28*life_cycle_emission_factors!G28</f>
         <v>13.758087959000001</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <f>twh_energy_balance!H28*life_cycle_emission_factors!H28</f>
         <v>15.726285159750001</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <f>twh_energy_balance!I28*life_cycle_emission_factors!I28</f>
         <v>16.908334711999998</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <f>twh_energy_balance!J28*life_cycle_emission_factors!J28</f>
         <v>14.524030224000002</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="13">
         <f>twh_energy_balance!K28*life_cycle_emission_factors!K28</f>
         <v>15.441575687500004</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="13">
         <f>twh_energy_balance!L28*life_cycle_emission_factors!L28</f>
         <v>15.705056119750004</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="13">
         <f>twh_energy_balance!M28*life_cycle_emission_factors!M28</f>
         <v>16.234231369250004</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="13">
         <f>twh_energy_balance!N28*life_cycle_emission_factors!N28</f>
         <v>15.995970353250001</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="13">
         <f>twh_energy_balance!O28*life_cycle_emission_factors!O28</f>
         <v>16.004623422999998</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="13">
         <f>twh_energy_balance!P28*life_cycle_emission_factors!P28</f>
         <v>14.21398596275</v>
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -2570,49 +2570,49 @@
       <c r="F29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <f>SUM(G30:G32)</f>
         <v>13.389665083781962</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <f t="shared" ref="H29:P29" si="4">SUM(H30:H32)</f>
         <v>13.473565490430294</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <f t="shared" si="4"/>
         <v>13.753755306227601</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <f t="shared" si="4"/>
         <v>12.291741710210804</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="13">
         <f t="shared" si="4"/>
         <v>12.566389569695962</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="13">
         <f t="shared" si="4"/>
         <v>10.962242643912001</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="13">
         <f t="shared" si="4"/>
         <v>11.303842026403627</v>
       </c>
-      <c r="N29" s="14">
+      <c r="N29" s="13">
         <f t="shared" si="4"/>
         <v>10.707031937325407</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="13">
         <f t="shared" si="4"/>
         <v>10.498519879915468</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="13">
         <f t="shared" si="4"/>
         <v>10.519878450908212</v>
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
@@ -2631,49 +2631,49 @@
       <c r="F30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f>twh_energy_balance!G30*life_cycle_emission_factors!G30</f>
         <v>1.5367466808069603</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <f>twh_energy_balance!H30*life_cycle_emission_factors!H30</f>
         <v>1.2853681434552959</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="14">
         <f>twh_energy_balance!I30*life_cycle_emission_factors!I30</f>
         <v>1.0967204150776</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="14">
         <f>twh_energy_balance!J30*life_cycle_emission_factors!J30</f>
         <v>1.0883790143608001</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <f>twh_energy_balance!K30*life_cycle_emission_factors!K30</f>
         <v>1.2070006837209599</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <f>twh_energy_balance!L30*life_cycle_emission_factors!L30</f>
         <v>1.1330402640320001</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <f>twh_energy_balance!M30*life_cycle_emission_factors!M30</f>
         <v>1.2303566057280002</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="14">
         <f>twh_energy_balance!N30*life_cycle_emission_factors!N30</f>
         <v>0.94340199431918426</v>
       </c>
-      <c r="O30" s="15">
+      <c r="O30" s="14">
         <f>twh_energy_balance!O30*life_cycle_emission_factors!O30</f>
         <v>1.0545859147068641</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="14">
         <f>twh_energy_balance!P30*life_cycle_emission_factors!P30</f>
         <v>0.8639605792425602</v>
       </c>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
@@ -2692,49 +2692,49 @@
       <c r="F31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f>twh_energy_balance!G31*life_cycle_emission_factors!G31</f>
         <v>9.3378345775000025</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <f>twh_energy_balance!H31*life_cycle_emission_factors!H31</f>
         <v>10.076246537500001</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="14">
         <f>twh_energy_balance!I31*life_cycle_emission_factors!I31</f>
         <v>10.553137595000003</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="14">
         <f>twh_energy_balance!J31*life_cycle_emission_factors!J31</f>
         <v>9.1839987525000026</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <f>twh_energy_balance!K31*life_cycle_emission_factors!K31</f>
         <v>9.4878245068750022</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <f>twh_energy_balance!L31*life_cycle_emission_factors!L31</f>
         <v>8.5571177656250015</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <f>twh_energy_balance!M31*life_cycle_emission_factors!M31</f>
         <v>8.8292917990062509</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N31" s="14">
         <f>twh_energy_balance!N31*life_cycle_emission_factors!N31</f>
         <v>6.5805889352775013</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O31" s="14">
         <f>twh_energy_balance!O31*life_cycle_emission_factors!O31</f>
         <v>6.1083860245443766</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="14">
         <f>twh_energy_balance!P31*life_cycle_emission_factors!P31</f>
         <v>6.3557809524137516</v>
       </c>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -2753,49 +2753,49 @@
       <c r="F32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f>twh_energy_balance!G32*life_cycle_emission_factors!G32</f>
         <v>2.5150838254749988</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <f>twh_energy_balance!H32*life_cycle_emission_factors!H32</f>
         <v>2.1119508094749979</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="14">
         <f>twh_energy_balance!I32*life_cycle_emission_factors!I32</f>
         <v>2.1038972961499982</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="14">
         <f>twh_energy_balance!J32*life_cycle_emission_factors!J32</f>
         <v>2.019363943350001</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <f>twh_energy_balance!K32*life_cycle_emission_factors!K32</f>
         <v>1.8715643791000012</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <f>twh_energy_balance!L32*life_cycle_emission_factors!L32</f>
         <v>1.2720846142549986</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="14">
         <f>twh_energy_balance!M32*life_cycle_emission_factors!M32</f>
         <v>1.2441936216693763</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N32" s="14">
         <f>twh_energy_balance!N32*life_cycle_emission_factors!N32</f>
         <v>3.1830410077287219</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O32" s="14">
         <f>twh_energy_balance!O32*life_cycle_emission_factors!O32</f>
         <v>3.3355479406642274</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="14">
         <f>twh_energy_balance!P32*life_cycle_emission_factors!P32</f>
         <v>3.3001369192519001</v>
       </c>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -2814,49 +2814,49 @@
       <c r="F33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <f>SUM(G17:G20)+SUM(G28:G29)</f>
         <v>40.22744912199331</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <f t="shared" ref="H33:P33" si="5">SUM(H17:H20)+SUM(H28:H29)</f>
         <v>42.740745593760273</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="15">
         <f t="shared" si="5"/>
         <v>43.962412131152469</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="15">
         <f t="shared" si="5"/>
         <v>38.835630585687191</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <f t="shared" si="5"/>
         <v>38.532148693337589</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="15">
         <f t="shared" si="5"/>
         <v>36.786643740627007</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="15">
         <f t="shared" si="5"/>
         <v>37.388503122344872</v>
       </c>
-      <c r="N33" s="16">
+      <c r="N33" s="15">
         <f t="shared" si="5"/>
         <v>36.623426961108876</v>
       </c>
-      <c r="O33" s="16">
+      <c r="O33" s="15">
         <f t="shared" si="5"/>
         <v>36.606419057842629</v>
       </c>
-      <c r="P33" s="16">
+      <c r="P33" s="15">
         <f t="shared" si="5"/>
         <v>34.145408456270182</v>
       </c>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
@@ -2875,149 +2875,149 @@
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <f>G16+G33</f>
         <v>113.29868917453254</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <f t="shared" ref="H34:P34" si="6">H16+H33</f>
         <v>122.06110609746611</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <f t="shared" si="6"/>
         <v>125.10909337004378</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <f t="shared" si="6"/>
         <v>103.10552215733705</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="15">
         <f t="shared" si="6"/>
         <v>103.92979708951285</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="15">
         <f t="shared" si="6"/>
         <v>103.34075930917945</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <f t="shared" si="6"/>
         <v>102.24429005494777</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N34" s="15">
         <f t="shared" si="6"/>
         <v>97.766497233370131</v>
       </c>
-      <c r="O34" s="16">
+      <c r="O34" s="15">
         <f t="shared" si="6"/>
         <v>96.595887370333926</v>
       </c>
-      <c r="P34" s="16">
+      <c r="P34" s="15">
         <f t="shared" si="6"/>
         <v>91.524646019998954</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>1.9514545495016609</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>1.9592831099753489</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>2.0012025124608344</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="19">
         <v>2.1363713815289866</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>2.2369066428657645</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <v>2.3491111633214432</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <v>2.3669724077728453</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="19">
         <v>2.1578938015132261</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="19">
         <v>1.8590579055575289</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="19">
         <v>1.8206556613608247</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>8.1943076894442655</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>8.2215101933163588</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>8.1438703534421588</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>8.0247405416306421</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>7.8529483754501408</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <v>7.582748330124871</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>7.2378520575507226</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="19">
         <v>6.3208066625048334</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="19">
         <v>5.3488708613007248</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="19">
         <v>4.6425990100847709</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O38" s="17"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O38" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,14 +3033,14 @@
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -3398,7 +3398,7 @@
       </c>
       <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -3764,7 +3764,7 @@
       </c>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -3947,7 +3947,7 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -4252,7 +4252,7 @@
       </c>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -4435,7 +4435,7 @@
       </c>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -4618,7 +4618,7 @@
       </c>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -4740,7 +4740,7 @@
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
@@ -5105,103 +5105,103 @@
         <v>74.5852761227315</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="19" t="s">
+      <c r="D35" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="19">
         <v>1.9514545495016609</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="19">
         <v>1.9592831099753489</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="19">
         <v>2.0012025124608344</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="19">
         <v>2.1363713815289866</v>
       </c>
-      <c r="K35" s="20">
+      <c r="K35" s="19">
         <v>2.2369066428657645</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <v>2.3491111633214432</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <v>2.3669724077728453</v>
       </c>
-      <c r="N35" s="20">
+      <c r="N35" s="19">
         <v>2.1578938015132261</v>
       </c>
-      <c r="O35" s="20">
+      <c r="O35" s="19">
         <v>1.8590579055575289</v>
       </c>
-      <c r="P35" s="20">
+      <c r="P35" s="19">
         <v>1.8206556613608247</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="19">
         <v>8.1943076894442655</v>
       </c>
-      <c r="H36" s="20">
+      <c r="H36" s="19">
         <v>8.2215101933163588</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="19">
         <v>8.1438703534421588</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="19">
         <v>8.0247405416306421</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="19">
         <v>7.8529483754501408</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <v>7.582748330124871</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>7.2378520575507226</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="19">
         <v>6.3208066625048334</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="19">
         <v>5.3488708613007248</v>
       </c>
-      <c r="P36" s="20">
+      <c r="P36" s="19">
         <v>4.6425990100847709</v>
       </c>
     </row>
@@ -5219,20 +5219,21 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>17.049854444444446</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>0.30392462681999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>169.77617499999999</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>117.97169777777776</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -5656,7 +5657,7 @@
         <v>78.60324944444443</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>37.229244444444447</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>2.1392038888888889</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -5815,7 +5816,7 @@
         <v>137.47295825</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>48.342168114954006</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>10.371282114579</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -5974,7 +5975,7 @@
         <v>35.92368268637501</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -6038,7 +6039,7 @@
         <v>2.0472033140000008</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>490.91677821399622</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -6144,7 +6145,7 @@
         <v>10.601388055555557</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0.42171975636000003</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>133.36982899999998</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>13.62740276421523</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>0.19448611111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>1.2221977777777777</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>3.518470555555556</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -6515,7 +6516,7 @@
         <v>1.6026680555555555</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>5.4113150000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>0.165855</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>1.3097002777777778</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>75.02500775</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -6780,7 +6781,7 @@
         <v>31.687498104564003</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>3.4233093208290004</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>19.334039151900004</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>8.9301496318349969</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>264.73284543069479</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>55</v>
       </c>
@@ -7023,47 +7024,47 @@
         <v>30</v>
       </c>
       <c r="G34" s="12">
-        <f>G16+G33</f>
+        <f t="shared" ref="G34:Q34" si="2">G16+G33</f>
         <v>717.21137292116191</v>
       </c>
       <c r="H34" s="12">
-        <f>H16+H33</f>
+        <f t="shared" si="2"/>
         <v>781.10553524160218</v>
       </c>
       <c r="I34" s="12">
-        <f>I16+I33</f>
+        <f t="shared" si="2"/>
         <v>814.99401088537707</v>
       </c>
       <c r="J34" s="12">
-        <f>J16+J33</f>
+        <f t="shared" si="2"/>
         <v>697.97878145706375</v>
       </c>
       <c r="K34" s="12">
-        <f>K16+K33</f>
+        <f t="shared" si="2"/>
         <v>731.90670267039536</v>
       </c>
       <c r="L34" s="12">
-        <f>L16+L33</f>
+        <f t="shared" si="2"/>
         <v>753.02386517438026</v>
       </c>
       <c r="M34" s="12">
-        <f>M16+M33</f>
+        <f t="shared" si="2"/>
         <v>748.55478021439603</v>
       </c>
       <c r="N34" s="12">
-        <f>N16+N33</f>
+        <f t="shared" si="2"/>
         <v>728.41922258951945</v>
       </c>
       <c r="O34" s="12">
-        <f>O16+O33</f>
+        <f t="shared" si="2"/>
         <v>723.31725998647516</v>
       </c>
       <c r="P34" s="12">
-        <f>P16+P33</f>
+        <f t="shared" si="2"/>
         <v>693.0514231073887</v>
       </c>
       <c r="Q34" s="12">
-        <f>Q16+Q33</f>
+        <f t="shared" si="2"/>
         <v>755.64962364469102</v>
       </c>
     </row>
@@ -7084,18 +7085,18 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:Q32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -7199,7 +7200,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -7303,7 +7304,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -7407,7 +7408,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -7458,7 +7459,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -7564,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -7670,7 +7671,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -7701,7 +7702,7 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -7807,7 +7808,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -7891,7 +7892,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -7997,7 +7998,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -8048,7 +8049,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -8205,7 +8206,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>2.8799999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -8311,7 +8312,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -8468,7 +8469,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -8733,7 +8734,7 @@
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -8802,14 +8803,14 @@
       <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="82" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -8913,7 +8914,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
@@ -9017,7 +9018,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>33</v>
       </c>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -9172,7 +9173,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>41</v>
       </c>
@@ -9331,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -9384,7 +9385,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -9435,7 +9436,7 @@
       </c>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -9488,7 +9489,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>52</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>109</v>
       </c>
@@ -9594,7 +9595,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>45</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
@@ -9698,7 +9699,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -9751,7 +9752,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -9802,7 +9803,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -9855,7 +9856,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
@@ -9908,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>70</v>
       </c>
@@ -9959,7 +9960,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>4.2799999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>60</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>73</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>74</v>
       </c>
@@ -10222,7 +10223,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -10275,7 +10276,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>66</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>68</v>
       </c>
@@ -10381,7 +10382,7 @@
         <v>0.23300000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>69</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>109</v>
       </c>
@@ -10487,7 +10488,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -10554,17 +10555,17 @@
       <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10617,7 +10618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>56.218000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>0.30392462681999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>39.379999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>17.049854444444446</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -10882,7 +10883,7 @@
         <v>39.379999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -10935,7 +10936,7 @@
         <v>0.30392462681999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -10988,7 +10989,7 @@
         <v>56.218000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>0.42171975636000003</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>95.597999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -11147,7 +11148,7 @@
         <v>169.77617499999999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>95.597999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>0.72564438318000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>10.47216335629143</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -11465,7 +11466,7 @@
         <v>16.854994371624155</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>78.60324944444443</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>27.327157727915584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -11624,7 +11625,7 @@
         <v>37.229244444444447</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -11677,7 +11678,7 @@
         <v>117.97169777777776</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -11730,7 +11731,7 @@
         <v>2.1392038888888889</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -11783,7 +11784,7 @@
         <v>137.47295825</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>168.62349623538364</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -11889,7 +11890,7 @@
         <v>132.99861148638183</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>490.91677821399622</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -11995,7 +11996,7 @@
         <v>35.92368268637501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>3.0888807125000004</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -12101,7 +12102,7 @@
         <v>1.6624281300000001</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -12154,7 +12155,7 @@
         <v>19.334039151900004</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -12207,7 +12208,7 @@
         <v>35.92368268637501</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>0.72564438318000002</v>
       </c>
     </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -12313,7 +12314,7 @@
         <v>27.651242500000002</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>131.59910054199298</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>212.49796600000002</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>55</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>755.64962364469113</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>13.484944296947969</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -12578,7 +12579,7 @@
         <v>116.05387138363865</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>58</v>
       </c>
@@ -12631,7 +12632,7 @@
         <v>80.029666219518006</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -12684,7 +12685,7 @@
         <v>0.42171975636000003</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
@@ -12737,7 +12738,7 @@
         <v>3.4576218861518613</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>77.302930776920363</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>5.3615142947026175</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
@@ -12896,7 +12897,7 @@
         <v>36.673236878615832</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>36</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>10.601388055555557</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -13002,7 +13003,7 @@
         <v>133.36982899999998</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -13055,7 +13056,7 @@
         <v>129.53881568058662</v>
       </c>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>131.984816</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>83.361119722222213</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>1.3850129999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -13267,7 +13268,7 @@
         <v>152.74773138888887</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>0.19448611111111111</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>236.10885111111108</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>62</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>73.858659847052223</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>82.065177607835778</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>135.20205403962362</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -13585,7 +13586,7 @@
         <v>150.22450448847067</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>209.06071388667584</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>54</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>232.28968209630645</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>49</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>3.0888807125000004</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
@@ -13797,7 +13798,7 @@
         <v>10.371282114579</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -13850,7 +13851,7 @@
         <v>2.7034762834228507</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
@@ -13903,7 +13904,7 @@
         <v>4.1056019210029797</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>50</v>
       </c>
@@ -13956,7 +13957,7 @@
         <v>0.89176974329999992</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>51</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>10.371282114579</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>2631.4237794819169</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
@@ -14115,7 +14116,7 @@
         <v>3969.1025737207624</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>58</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v>6671.0320000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>58</v>
       </c>
@@ -14221,7 +14222,7 @@
         <v>6.8813126586000006</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>58</v>
       </c>
@@ -14274,7 +14275,7 @@
         <v>6600.5263532026793</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>58</v>
       </c>
@@ -14327,7 +14328,7 @@
         <v>6.8090782044258304</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -14380,7 +14381,7 @@
         <v>0.89176974329999992</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>68</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>0.29435161830000001</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>68</v>
       </c>
@@ -14486,7 +14487,7 @@
         <v>3.4233093208290004</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>47</v>
       </c>
@@ -14539,7 +14540,7 @@
         <v>48.342168114954006</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>4.1566782558000002</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>4018.8140000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>70</v>
       </c>
@@ -14698,7 +14699,7 @@
         <v>1.2221977777777777</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>59</v>
       </c>
@@ -14751,7 +14752,7 @@
         <v>3.518470555555556</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>71</v>
       </c>
@@ -14804,7 +14805,7 @@
         <v>1.6026680555555555</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
@@ -14857,7 +14858,7 @@
         <v>262.67752791924119</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>45</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>484.78649099835474</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>55</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>747.46401891759592</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
@@ -15016,7 +15017,7 @@
         <v>5.4113150000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>57</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>13.62740276421523</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>66</v>
       </c>
@@ -15122,7 +15123,7 @@
         <v>31.441429176207755</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
@@ -15175,7 +15176,7 @@
         <v>47.748150341264655</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>73</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>0.165855</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>58</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>79.18957951747241</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>74</v>
       </c>
@@ -15334,7 +15335,7 @@
         <v>1.3097002777777778</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>62</v>
       </c>
@@ -15387,7 +15388,7 @@
         <v>75.02500775</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>72</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>264.73284543069479</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>66</v>
       </c>
@@ -15493,7 +15494,7 @@
         <v>2.7246344028</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>66</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>2652.2179999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>66</v>
       </c>
@@ -15633,16 +15634,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="88.7109375" customWidth="1"/>
+    <col min="4" max="4" width="88.6640625" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -15659,7 +15660,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -15676,7 +15677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>107</v>
       </c>
@@ -15690,7 +15691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -15722,7 +15723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -15735,11 +15736,11 @@
       <c r="D6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -15752,9 +15753,9 @@
       <c r="D7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -15767,9 +15768,9 @@
       <c r="D8" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -15782,9 +15783,9 @@
       <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
